--- a/data/B.xlsx
+++ b/data/B.xlsx
@@ -3,17 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="DOC-20251006-WA0028" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'DOC-20251006-WA0028'!$A$1:$J$225</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="706">
   <si>
     <t>User Name</t>
   </si>
@@ -63,267 +61,276 @@
     <t>No</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Amisha Verma</t>
+  </si>
+  <si>
+    <t>amishavermadbit60@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d037c2d6-5448-45a9-99f3-1ba45c25ebf6</t>
+  </si>
+  <si>
+    <t>Glynis D'Mello</t>
+  </si>
+  <si>
+    <t>glynisdarryldmello@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9206cc1a-49fd-4d4a-941f-cd4fc9b42dcd</t>
+  </si>
+  <si>
+    <t>Vaishnavi Sawant</t>
+  </si>
+  <si>
+    <t>vaishnavi31272@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a5c328b3-ae81-477f-8235-9b3043d382ad</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shaun Rodrigues</t>
+  </si>
+  <si>
+    <t>shaunrodrigues4321@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/49905684-9f57-4797-a903-6a51efdafda2</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Liston D'souza</t>
+  </si>
+  <si>
+    <t>liston4lyfe@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1ef3fa1-ea5c-4913-8de0-8fd302dafb91</t>
+  </si>
+  <si>
     <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
   </si>
   <si>
-    <t>Amisha Verma</t>
-  </si>
-  <si>
-    <t>amishavermadbit60@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d037c2d6-5448-45a9-99f3-1ba45c25ebf6</t>
-  </si>
-  <si>
-    <t>Glynis D'Mello</t>
-  </si>
-  <si>
-    <t>glynisdarryldmello@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9206cc1a-49fd-4d4a-941f-cd4fc9b42dcd</t>
-  </si>
-  <si>
-    <t>Vaishnavi Sawant</t>
-  </si>
-  <si>
-    <t>vaishnavi31272@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a5c328b3-ae81-477f-8235-9b3043d382ad</t>
-  </si>
-  <si>
-    <t>Shaun Rodrigues</t>
-  </si>
-  <si>
-    <t>shaunrodrigues4321@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/49905684-9f57-4797-a903-6a51efdafda2</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Liston D'souza</t>
-  </si>
-  <si>
-    <t>liston4lyfe@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1ef3fa1-ea5c-4913-8de0-8fd302dafb91</t>
+    <t>Ankita M Gadre</t>
+  </si>
+  <si>
+    <t>ankitagadre18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0e35a44e-8df1-4169-9d50-73914b292d0e</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game]</t>
+  </si>
+  <si>
+    <t>Bhumi Shashikant Lotankar</t>
+  </si>
+  <si>
+    <t>thecodecipherr@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
+  </si>
+  <si>
+    <t>Aarya Pate</t>
+  </si>
+  <si>
+    <t>aaryapate6@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
+  </si>
+  <si>
+    <t>Aaditi Bhatade</t>
+  </si>
+  <si>
+    <t>aaditibhatade1229@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
+  </si>
+  <si>
+    <t>CHERLIN TERENCE LOBO</t>
+  </si>
+  <si>
+    <t>loboc1705@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
+  </si>
+  <si>
+    <t>Anusha Jitendra Gupta</t>
+  </si>
+  <si>
+    <t>anusha.gupta1307@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shravani Pokale</t>
+  </si>
+  <si>
+    <t>shravanip2503@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Asma Sayed</t>
+  </si>
+  <si>
+    <t>asmasayed341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
+  </si>
+  <si>
+    <t>Adithya Menon</t>
+  </si>
+  <si>
+    <t>frankenstienmenon@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
+  </si>
+  <si>
+    <t>JIshnu Gopalakrishnan Nair</t>
+  </si>
+  <si>
+    <t>jishnuforcloud@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alina Koshy</t>
+  </si>
+  <si>
+    <t>koshyalinagdg76@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
+  </si>
+  <si>
+    <t>Hemal Manohar Bhirud</t>
+  </si>
+  <si>
+    <t>hmbhirud2024@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alston Damian Coelho</t>
+  </si>
+  <si>
+    <t>alstoncoelho05@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
+  </si>
+  <si>
+    <t>Bhanudas Nivrutti Patil</t>
+  </si>
+  <si>
+    <t>p9579b@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
+  </si>
+  <si>
+    <t>Sahil Sandeep Vernekar</t>
+  </si>
+  <si>
+    <t>sahilvernekar60@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
+  </si>
+  <si>
+    <t>Piyush Prashant Khandait</t>
+  </si>
+  <si>
+    <t>khandaitpiyush@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
+  </si>
+  <si>
+    <t>Nazeefa Mohammed Ahsan Hussain</t>
+  </si>
+  <si>
+    <t>nazeefahussain2301@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
+  </si>
+  <si>
+    <t>Jayesh Sanjay Wani</t>
+  </si>
+  <si>
+    <t>jayesh@flockshop.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
+  </si>
+  <si>
+    <t>Shraddha Gajanan Desai</t>
+  </si>
+  <si>
+    <t>shraddhadesai3176@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Shankar Khatpe</t>
+  </si>
+  <si>
+    <t>yashkhatpe5@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Pearlin Charlston Tixeira</t>
+  </si>
+  <si>
+    <t>pearlint6gdg@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
   </si>
   <si>
     <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
   </si>
   <si>
-    <t>Ankita M Gadre</t>
-  </si>
-  <si>
-    <t>ankitagadre18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0e35a44e-8df1-4169-9d50-73914b292d0e</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game]</t>
-  </si>
-  <si>
-    <t>Bhumi Shashikant Lotankar</t>
-  </si>
-  <si>
-    <t>thecodecipherr@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aarya Pate</t>
-  </si>
-  <si>
-    <t>aaryapate6@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
-  </si>
-  <si>
-    <t>Aaditi Bhatade</t>
-  </si>
-  <si>
-    <t>aaditibhatade1229@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
-  </si>
-  <si>
-    <t>CHERLIN TERENCE LOBO</t>
-  </si>
-  <si>
-    <t>loboc1705@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
-  </si>
-  <si>
-    <t>Anusha Jitendra Gupta</t>
-  </si>
-  <si>
-    <t>anusha.gupta1307@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shravani Pokale</t>
-  </si>
-  <si>
-    <t>shravanip2503@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Asma Sayed</t>
-  </si>
-  <si>
-    <t>asmasayed341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
-  </si>
-  <si>
-    <t>Adithya Menon</t>
-  </si>
-  <si>
-    <t>frankenstienmenon@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
-  </si>
-  <si>
-    <t>JIshnu Gopalakrishnan Nair</t>
-  </si>
-  <si>
-    <t>jishnuforcloud@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
-  </si>
-  <si>
-    <t>Alina Koshy</t>
-  </si>
-  <si>
-    <t>koshyalinagdg76@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
-  </si>
-  <si>
-    <t>Hemal Manohar Bhirud</t>
-  </si>
-  <si>
-    <t>hmbhirud2024@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alston Damian Coelho</t>
-  </si>
-  <si>
-    <t>alstoncoelho05@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
-  </si>
-  <si>
-    <t>Bhanudas Nivrutti Patil</t>
-  </si>
-  <si>
-    <t>p9579b@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
-  </si>
-  <si>
-    <t>Sahil Sandeep Vernekar</t>
-  </si>
-  <si>
-    <t>sahilvernekar60@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Piyush Prashant Khandait</t>
-  </si>
-  <si>
-    <t>khandaitpiyush@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
-  </si>
-  <si>
-    <t>Nazeefa Mohammed Ahsan Hussain</t>
-  </si>
-  <si>
-    <t>nazeefahussain2301@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
-  </si>
-  <si>
-    <t>Jayesh Sanjay Wani</t>
-  </si>
-  <si>
-    <t>jayesh@flockshop.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
-  </si>
-  <si>
-    <t>Shraddha Gajanan Desai</t>
-  </si>
-  <si>
-    <t>shraddhadesai3176@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
-  </si>
-  <si>
-    <t>Yash Shankar Khatpe</t>
-  </si>
-  <si>
-    <t>yashkhatpe5@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
-  </si>
-  <si>
-    <t>Pearlin Charlston Tixeira</t>
-  </si>
-  <si>
-    <t>pearlint6gdg@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
-  </si>
-  <si>
     <t>Yash Narayan Manore</t>
   </si>
   <si>
@@ -333,6 +340,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
   </si>
   <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
     <t>Aryan Yadav</t>
   </si>
   <si>
@@ -342,7 +352,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
   </si>
   <si>
     <t>Gururaj Sanjay Panse</t>
@@ -381,9 +391,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
   </si>
   <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
     <t>Om Waghmare</t>
   </si>
   <si>
@@ -549,6 +556,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
   </si>
   <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
     <t>Elissa Quadros</t>
   </si>
   <si>
@@ -597,6 +607,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
     <t>Isha Sairaj Samant</t>
   </si>
   <si>
@@ -606,7 +619,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
   </si>
   <si>
-    <t>Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge]</t>
+    <t>Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
   </si>
   <si>
     <t>Raissa Auree Dsouza</t>
@@ -981,6 +994,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
   </si>
   <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
     <t>Madhura Sunil Kedar</t>
   </si>
   <si>
@@ -1146,9 +1162,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
   </si>
   <si>
-    <t>Good profile - error getting latest data. Will be fixed in next report</t>
-  </si>
-  <si>
     <t>Soham Rahatwal</t>
   </si>
   <si>
@@ -1338,7 +1351,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
   </si>
   <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
   </si>
   <si>
     <t>Ketan Suresh Shelke</t>
@@ -1564,9 +1577,6 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
   </si>
   <si>
     <t>Kaustubh Pankaj Gund</t>
@@ -2132,11 +2142,7 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -2178,200 +2184,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -2380,7 +2192,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -2434,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
@@ -2515,7 +2327,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I5" s="1">
         <v>0.0</v>
@@ -2523,13 +2338,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -2544,7 +2359,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1">
         <v>0.0</v>
@@ -2552,13 +2367,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -2570,10 +2385,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1">
         <v>0.0</v>
@@ -2581,13 +2396,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -2599,7 +2414,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
@@ -2608,18 +2423,18 @@
         <v>1.0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -2634,7 +2449,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1">
         <v>0.0</v>
@@ -2686,7 +2501,10 @@
         <v>15</v>
       </c>
       <c r="G11" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I11" s="1">
         <v>0.0</v>
@@ -2738,13 +2556,16 @@
         <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I13" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -2776,7 +2597,7 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2802,7 +2623,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="1">
         <v>0.0</v>
@@ -2854,7 +2675,10 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I17" s="1">
         <v>0.0</v>
@@ -2862,13 +2686,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -2888,13 +2712,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -2906,10 +2730,10 @@
         <v>15</v>
       </c>
       <c r="G19" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="1">
         <v>0.0</v>
@@ -2917,13 +2741,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -2943,13 +2767,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -2969,13 +2793,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -2990,7 +2814,7 @@
         <v>4.0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I22" s="1">
         <v>0.0</v>
@@ -3094,10 +2918,10 @@
         <v>15</v>
       </c>
       <c r="G26" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="I26" s="1">
         <v>0.0</v>
@@ -3105,13 +2929,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -3126,7 +2950,7 @@
         <v>3.0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="I27" s="1">
         <v>0.0</v>
@@ -3134,13 +2958,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -3155,7 +2979,7 @@
         <v>5.0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I28" s="1">
         <v>0.0</v>
@@ -3163,13 +2987,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -3181,10 +3005,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="I29" s="1">
         <v>0.0</v>
@@ -3192,13 +3016,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -3210,10 +3034,10 @@
         <v>15</v>
       </c>
       <c r="G30" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I30" s="1">
         <v>0.0</v>
@@ -3221,13 +3045,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -3239,7 +3063,10 @@
         <v>15</v>
       </c>
       <c r="G31" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I31" s="1">
         <v>0.0</v>
@@ -3247,13 +3074,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -3265,24 +3092,27 @@
         <v>15</v>
       </c>
       <c r="G32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I32" s="1">
         <v>1.0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -3294,7 +3124,10 @@
         <v>15</v>
       </c>
       <c r="G33" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I33" s="1">
         <v>0.0</v>
@@ -3302,13 +3135,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -3320,10 +3153,10 @@
         <v>15</v>
       </c>
       <c r="G34" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="I34" s="1">
         <v>0.0</v>
@@ -3331,13 +3164,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -3349,7 +3182,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>54</v>
@@ -3360,13 +3193,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -3386,13 +3219,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -3412,13 +3245,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -3438,13 +3271,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -3464,13 +3297,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -3490,13 +3323,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -3516,13 +3349,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -3534,24 +3367,27 @@
         <v>15</v>
       </c>
       <c r="G42" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="I42" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -3571,13 +3407,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -3589,10 +3425,10 @@
         <v>15</v>
       </c>
       <c r="G44" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I44" s="1">
         <v>0.0</v>
@@ -3600,13 +3436,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -3626,13 +3462,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -3647,24 +3483,24 @@
         <v>16.0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I46" s="1">
         <v>1.0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -3684,13 +3520,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -3702,7 +3538,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I48" s="1">
         <v>0.0</v>
@@ -3710,13 +3549,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -3728,10 +3567,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I49" s="1">
         <v>0.0</v>
@@ -3739,13 +3578,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -3757,30 +3596,33 @@
         <v>15</v>
       </c>
       <c r="G50" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" s="1">
         <v>1.0</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.0</v>
+      <c r="J50" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>15</v>
@@ -3794,13 +3636,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -3812,10 +3654,10 @@
         <v>15</v>
       </c>
       <c r="G52" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="I52" s="1">
         <v>0.0</v>
@@ -3823,13 +3665,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -3844,7 +3686,7 @@
         <v>2.0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I53" s="1">
         <v>0.0</v>
@@ -3852,13 +3694,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -3870,7 +3712,10 @@
         <v>15</v>
       </c>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I54" s="1">
         <v>0.0</v>
@@ -3878,13 +3723,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -3896,7 +3741,10 @@
         <v>15</v>
       </c>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="I55" s="1">
         <v>0.0</v>
@@ -3904,13 +3752,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
@@ -3930,13 +3778,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -3948,7 +3796,10 @@
         <v>15</v>
       </c>
       <c r="G57" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="I57" s="1">
         <v>0.0</v>
@@ -3956,13 +3807,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -3974,24 +3825,27 @@
         <v>15</v>
       </c>
       <c r="G58" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I58" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -4011,13 +3865,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -4037,13 +3891,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>13</v>
@@ -4058,7 +3912,7 @@
         <v>5.0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I61" s="1">
         <v>0.0</v>
@@ -4066,13 +3920,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -4092,13 +3946,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -4118,13 +3972,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
@@ -4144,13 +3998,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -4170,13 +4024,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
@@ -4196,13 +4050,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -4222,13 +4076,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -4248,13 +4102,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
@@ -4274,13 +4128,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -4292,7 +4146,10 @@
         <v>15</v>
       </c>
       <c r="G70" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="I70" s="1">
         <v>0.0</v>
@@ -4300,13 +4157,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
@@ -4326,13 +4183,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>13</v>
@@ -4352,13 +4209,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -4378,13 +4235,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
@@ -4399,7 +4256,7 @@
         <v>3.0</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="I74" s="1">
         <v>0.0</v>
@@ -4407,13 +4264,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -4428,7 +4285,7 @@
         <v>3.0</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I75" s="1">
         <v>0.0</v>
@@ -4436,13 +4293,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -4462,13 +4319,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
@@ -4486,18 +4343,18 @@
         <v>1.0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -4517,13 +4374,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -4543,13 +4400,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -4569,13 +4426,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -4595,13 +4452,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -4621,13 +4478,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>13</v>
@@ -4642,18 +4499,21 @@
         <v>0.0</v>
       </c>
       <c r="I83" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -4665,7 +4525,10 @@
         <v>15</v>
       </c>
       <c r="G84" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I84" s="1">
         <v>0.0</v>
@@ -4673,13 +4536,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>13</v>
@@ -4699,13 +4562,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>13</v>
@@ -4725,13 +4588,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -4751,13 +4614,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -4777,13 +4640,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>13</v>
@@ -4795,21 +4658,27 @@
         <v>15</v>
       </c>
       <c r="G89" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I89" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -4829,13 +4698,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>13</v>
@@ -4850,7 +4719,7 @@
         <v>5.0</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I91" s="1">
         <v>0.0</v>
@@ -4858,13 +4727,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
@@ -4876,10 +4745,10 @@
         <v>15</v>
       </c>
       <c r="G92" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="I92" s="1">
         <v>0.0</v>
@@ -4887,13 +4756,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>13</v>
@@ -4913,13 +4782,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -4939,13 +4808,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -4965,13 +4834,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -4991,13 +4860,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>13</v>
@@ -5017,13 +4886,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -5035,7 +4904,10 @@
         <v>15</v>
       </c>
       <c r="G98" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I98" s="1">
         <v>0.0</v>
@@ -5043,13 +4915,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>13</v>
@@ -5061,10 +4933,10 @@
         <v>15</v>
       </c>
       <c r="G99" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>84</v>
+        <v>327</v>
       </c>
       <c r="I99" s="1">
         <v>0.0</v>
@@ -5072,13 +4944,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -5090,7 +4962,10 @@
         <v>15</v>
       </c>
       <c r="G100" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I100" s="1">
         <v>0.0</v>
@@ -5098,13 +4973,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
@@ -5124,13 +4999,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
@@ -5150,13 +5025,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -5176,13 +5051,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -5194,7 +5069,10 @@
         <v>15</v>
       </c>
       <c r="G104" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I104" s="1">
         <v>0.0</v>
@@ -5202,13 +5080,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -5228,13 +5106,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -5254,13 +5132,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
@@ -5280,13 +5158,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -5306,13 +5184,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
@@ -5332,13 +5210,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -5353,7 +5231,7 @@
         <v>3.0</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="I110" s="1">
         <v>0.0</v>
@@ -5361,13 +5239,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>13</v>
@@ -5382,7 +5260,7 @@
         <v>2.0</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I111" s="1">
         <v>0.0</v>
@@ -5390,13 +5268,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -5416,13 +5294,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
@@ -5442,13 +5320,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>13</v>
@@ -5468,13 +5346,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>13</v>
@@ -5489,7 +5367,7 @@
         <v>1.0</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="I115" s="1">
         <v>0.0</v>
@@ -5497,13 +5375,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
@@ -5515,10 +5393,10 @@
         <v>15</v>
       </c>
       <c r="G116" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
       <c r="I116" s="1">
         <v>0.0</v>
@@ -5526,16 +5404,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>377</v>
+        <v>13</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>14</v>
@@ -5552,13 +5430,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>13</v>
@@ -5578,13 +5456,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>13</v>
@@ -5599,7 +5477,7 @@
         <v>5.0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I119" s="1">
         <v>0.0</v>
@@ -5607,19 +5485,19 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>15</v>
@@ -5633,13 +5511,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>13</v>
@@ -5654,7 +5532,7 @@
         <v>4.0</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I121" s="1">
         <v>0.0</v>
@@ -5662,13 +5540,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>13</v>
@@ -5680,7 +5558,10 @@
         <v>15</v>
       </c>
       <c r="G122" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="I122" s="1">
         <v>0.0</v>
@@ -5688,13 +5569,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
@@ -5714,13 +5595,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>13</v>
@@ -5740,19 +5621,19 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>15</v>
@@ -5766,13 +5647,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>13</v>
@@ -5792,13 +5673,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>13</v>
@@ -5818,13 +5699,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
@@ -5844,13 +5725,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>13</v>
@@ -5870,13 +5751,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>13</v>
@@ -5896,13 +5777,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
@@ -5922,13 +5803,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>13</v>
@@ -5948,13 +5829,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>13</v>
@@ -5974,13 +5855,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>13</v>
@@ -6000,13 +5881,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>13</v>
@@ -6018,10 +5899,10 @@
         <v>15</v>
       </c>
       <c r="G135" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I135" s="1">
         <v>0.0</v>
@@ -6029,13 +5910,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>13</v>
@@ -6047,7 +5928,10 @@
         <v>15</v>
       </c>
       <c r="G136" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I136" s="1">
         <v>0.0</v>
@@ -6055,13 +5939,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>13</v>
@@ -6081,13 +5965,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>13</v>
@@ -6099,10 +5983,10 @@
         <v>15</v>
       </c>
       <c r="G138" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="I138" s="1">
         <v>0.0</v>
@@ -6110,13 +5994,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>13</v>
@@ -6136,13 +6020,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>13</v>
@@ -6162,13 +6046,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>13</v>
@@ -6180,7 +6064,10 @@
         <v>15</v>
       </c>
       <c r="G141" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="I141" s="1">
         <v>0.0</v>
@@ -6188,19 +6075,19 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>15</v>
@@ -6214,13 +6101,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>13</v>
@@ -6240,13 +6127,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>13</v>
@@ -6266,13 +6153,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>13</v>
@@ -6284,24 +6171,27 @@
         <v>15</v>
       </c>
       <c r="G145" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="I145" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>13</v>
@@ -6321,13 +6211,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>13</v>
@@ -6342,7 +6232,7 @@
         <v>4.0</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I147" s="1">
         <v>0.0</v>
@@ -6350,13 +6240,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>13</v>
@@ -6376,13 +6266,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>13</v>
@@ -6402,13 +6292,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>13</v>
@@ -6428,13 +6318,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>13</v>
@@ -6454,13 +6344,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>13</v>
@@ -6480,13 +6370,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>13</v>
@@ -6506,13 +6396,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>13</v>
@@ -6532,13 +6422,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>13</v>
@@ -6550,7 +6440,7 @@
         <v>15</v>
       </c>
       <c r="G155" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>54</v>
@@ -6561,13 +6451,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>13</v>
@@ -6587,13 +6477,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>13</v>
@@ -6613,13 +6503,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>13</v>
@@ -6639,13 +6529,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>13</v>
@@ -6665,13 +6555,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>13</v>
@@ -6691,13 +6581,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>13</v>
@@ -6717,13 +6607,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>13</v>
@@ -6735,10 +6625,10 @@
         <v>15</v>
       </c>
       <c r="G162" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I162" s="1">
         <v>0.0</v>
@@ -6746,13 +6636,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>13</v>
@@ -6767,7 +6657,7 @@
         <v>4.0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>517</v>
+        <v>198</v>
       </c>
       <c r="I163" s="1">
         <v>0.0</v>
@@ -6775,13 +6665,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>13</v>
@@ -6801,13 +6691,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>13</v>
@@ -6822,7 +6712,7 @@
         <v>4.0</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I165" s="1">
         <v>0.0</v>
@@ -6830,13 +6720,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>13</v>
@@ -6856,13 +6746,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>13</v>
@@ -6882,13 +6772,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>13</v>
@@ -6903,7 +6793,7 @@
         <v>1.0</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I168" s="1">
         <v>0.0</v>
@@ -6911,13 +6801,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>13</v>
@@ -6937,13 +6827,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>13</v>
@@ -6963,13 +6853,13 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>13</v>
@@ -6989,13 +6879,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>13</v>
@@ -7018,10 +6908,10 @@
         <v>51</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>13</v>
@@ -7041,13 +6931,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>13</v>
@@ -7067,19 +6957,19 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>15</v>
@@ -7093,13 +6983,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>13</v>
@@ -7119,13 +7009,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>13</v>
@@ -7145,13 +7035,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>13</v>
@@ -7171,13 +7061,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>13</v>
@@ -7197,13 +7087,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>13</v>
@@ -7223,13 +7113,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>13</v>
@@ -7249,13 +7139,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>13</v>
@@ -7275,13 +7165,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>13</v>
@@ -7301,13 +7191,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>13</v>
@@ -7327,13 +7217,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>13</v>
@@ -7353,13 +7243,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>13</v>
@@ -7379,19 +7269,19 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>15</v>
@@ -7405,13 +7295,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>13</v>
@@ -7431,19 +7321,19 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>15</v>
@@ -7457,13 +7347,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>13</v>
@@ -7475,7 +7365,10 @@
         <v>15</v>
       </c>
       <c r="G190" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I190" s="1">
         <v>0.0</v>
@@ -7483,13 +7376,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>13</v>
@@ -7509,13 +7402,13 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>13</v>
@@ -7538,10 +7431,10 @@
         <v>59</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>13</v>
@@ -7561,13 +7454,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>13</v>
@@ -7587,13 +7480,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>13</v>
@@ -7613,13 +7506,13 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>13</v>
@@ -7639,13 +7532,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>13</v>
@@ -7665,13 +7558,13 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>13</v>
@@ -7691,13 +7584,13 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>13</v>
@@ -7709,10 +7602,10 @@
         <v>15</v>
       </c>
       <c r="G199" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I199" s="1">
         <v>0.0</v>
@@ -7720,13 +7613,13 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>13</v>
@@ -7746,13 +7639,13 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>13</v>
@@ -7772,13 +7665,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>13</v>
@@ -7798,13 +7691,13 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>13</v>
@@ -7824,13 +7717,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>13</v>
@@ -7850,13 +7743,13 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>13</v>
@@ -7876,13 +7769,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>13</v>
@@ -7902,13 +7795,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>13</v>
@@ -7928,13 +7821,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>13</v>
@@ -7954,13 +7847,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>13</v>
@@ -7980,13 +7873,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>13</v>
@@ -8006,13 +7899,13 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>13</v>
@@ -8032,13 +7925,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>13</v>
@@ -8058,13 +7951,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>13</v>
@@ -8084,13 +7977,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>13</v>
@@ -8110,13 +8003,13 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>13</v>
@@ -8136,13 +8029,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>13</v>
@@ -8162,13 +8055,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>13</v>
@@ -8188,13 +8081,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>13</v>
@@ -8214,13 +8107,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>13</v>
@@ -8240,13 +8133,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>13</v>
@@ -8266,19 +8159,19 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>15</v>
@@ -8292,13 +8185,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>13</v>
@@ -8318,13 +8211,13 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>13</v>
@@ -8344,13 +8237,13 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>13</v>
@@ -8370,13 +8263,13 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>13</v>
@@ -8395,7 +8288,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$225"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
     <hyperlink r:id="rId2" ref="C3"/>

--- a/data/B.xlsx
+++ b/data/B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72B479B-8361-4736-B934-A556378EB504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEDD453-AFB3-45F2-BB43-1BBF7ECA6E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="726">
   <si>
     <t>User Name</t>
   </si>
@@ -2195,6 +2195,9 @@
   </si>
   <si>
     <t>eligibleforgoodies</t>
+  </si>
+  <si>
+    <t>Jaeden Lourenco pereira</t>
   </si>
 </sst>
 </file>
@@ -2562,8 +2565,8 @@
   </sheetPr>
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7895,7 +7898,7 @@
     </row>
     <row r="193" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>63</v>
+        <v>725</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>625</v>

--- a/data/B.xlsx
+++ b/data/B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEDD453-AFB3-45F2-BB43-1BBF7ECA6E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33CB41-2BFD-40AC-AE96-87BC8DCAF267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="727">
   <si>
     <t>User Name</t>
   </si>
@@ -2198,6 +2198,9 @@
   </si>
   <si>
     <t>Jaeden Lourenco pereira</t>
+  </si>
+  <si>
+    <t>Anusha  Gupta</t>
   </si>
 </sst>
 </file>
@@ -2565,8 +2568,8 @@
   </sheetPr>
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7369,7 +7372,7 @@
     </row>
     <row r="173" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>55</v>
+        <v>726</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>566</v>
